--- a/data/outputs/management_elsevier/56.xlsx
+++ b/data/outputs/management_elsevier/56.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS93"/>
+  <dimension ref="A1:BU93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84936882588</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1774</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1140,6 +1156,12 @@
           <t>2-s2.0-84934920124</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>944</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1349,6 +1371,12 @@
           <t>2-s2.0-84935030035</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>716</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1564,6 +1592,12 @@
           <t>2-s2.0-84940040834</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>935</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1782,6 +1816,12 @@
         <is>
           <t>2-s2.0-84941625244</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>1209</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1982,6 +2022,12 @@
           <t>2-s2.0-84942296180</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>296</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2207,6 +2253,12 @@
           <t>2-s2.0-84946172056</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>2694</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2424,6 +2476,12 @@
           <t>2-s2.0-84941734995</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>645</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2646,6 +2704,12 @@
         <is>
           <t>2-s2.0-84941730809</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>1078</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2854,6 +2918,12 @@
           <t>2-s2.0-84941737958</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>520</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3069,6 +3139,12 @@
           <t>2-s2.0-84941810062</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1373</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3288,6 +3364,12 @@
           <t>2-s2.0-84939452575</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>941</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3498,6 +3580,12 @@
         <is>
           <t>2-s2.0-84946174965</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>761</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3706,6 +3794,12 @@
           <t>2-s2.0-84946174826</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1116</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3925,6 +4019,12 @@
           <t>2-s2.0-84928949116</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1249</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4140,6 +4240,12 @@
           <t>2-s2.0-84928943476</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>900</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4350,6 +4456,12 @@
         <is>
           <t>2-s2.0-84928940281</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>2224</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -4557,6 +4669,12 @@
         <is>
           <t>2-s2.0-84928956101</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>1389</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -4753,6 +4871,12 @@
           <t>2-s2.0-84937852806</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1289</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4967,6 +5091,12 @@
         <is>
           <t>2-s2.0-84944653027</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>850</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -5175,6 +5305,12 @@
           <t>2-s2.0-84908409168</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2658</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5394,6 +5530,12 @@
           <t>2-s2.0-84923356773</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>677</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5621,6 +5763,12 @@
           <t>2-s2.0-84921511359</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2353</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5844,6 +5992,12 @@
           <t>2-s2.0-84937827737</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>3537</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6055,6 +6209,12 @@
           <t>2-s2.0-84890344411</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>779</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6278,6 +6438,12 @@
           <t>2-s2.0-84888984140</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1108</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6495,6 +6661,12 @@
           <t>2-s2.0-85027936819</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>635</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6714,6 +6886,12 @@
           <t>2-s2.0-84909978965</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>2686</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6925,6 +7103,12 @@
           <t>2-s2.0-84895854390</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1973</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7148,6 +7332,12 @@
           <t>2-s2.0-84937874172</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>849</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7362,6 +7552,12 @@
         <is>
           <t>2-s2.0-84937928837</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>1186</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -7558,6 +7754,12 @@
           <t>2-s2.0-84937928789</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>721</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7772,6 +7974,12 @@
         <is>
           <t>2-s2.0-84937941098</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>605</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -7982,6 +8190,12 @@
           <t>2-s2.0-84937959645</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>1505</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8191,6 +8405,12 @@
           <t>2-s2.0-84925336686</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1106</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8400,6 +8620,12 @@
           <t>2-s2.0-84922882981</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1023</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8620,6 +8846,12 @@
         <is>
           <t>2-s2.0-84937779872</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>1342</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -8830,6 +9062,12 @@
           <t>2-s2.0-84937780354</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1297</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9039,6 +9277,12 @@
           <t>2-s2.0-84938062964</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1998</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9240,6 +9484,12 @@
           <t>2-s2.0-84925356925</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>3118</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9459,6 +9709,12 @@
           <t>2-s2.0-84928944097</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1656</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9678,6 +9934,12 @@
           <t>2-s2.0-84937825538</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1276</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9899,6 +10161,12 @@
           <t>2-s2.0-84908441366</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>5917</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10121,6 +10389,12 @@
         <is>
           <t>2-s2.0-84921306172</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>1464</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -10335,6 +10609,12 @@
           <t>2-s2.0-84920583452</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2612</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10550,6 +10830,12 @@
           <t>2-s2.0-84921316049</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>967</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10771,6 +11057,12 @@
           <t>2-s2.0-84921367333</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1387</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10984,6 +11276,12 @@
           <t>2-s2.0-84921467401</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1077</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11193,6 +11491,12 @@
           <t>2-s2.0-84933053784</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>3336</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11404,6 +11708,12 @@
           <t>2-s2.0-84951756878</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1219</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11617,6 +11927,12 @@
           <t>2-s2.0-84955098025</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1383</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11839,6 +12155,12 @@
         <is>
           <t>2-s2.0-84922347438</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>3379</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -12046,6 +12368,12 @@
         <is>
           <t>2-s2.0-84923763372</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>873</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -12246,6 +12574,12 @@
           <t>2-s2.0-84928637871</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>300</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12457,6 +12791,12 @@
           <t>2-s2.0-84939973909</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>960</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12666,6 +13006,12 @@
           <t>2-s2.0-84940004585</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>2323</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12873,6 +13219,12 @@
           <t>2-s2.0-84939995228</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>689</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13080,6 +13432,12 @@
           <t>2-s2.0-84939953362</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>862</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13294,6 +13652,12 @@
         <is>
           <t>2-s2.0-84939939028</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>636</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -13502,6 +13866,12 @@
           <t>2-s2.0-84939937881</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>1405</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13709,6 +14079,12 @@
           <t>2-s2.0-84940007318</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>719</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13916,6 +14292,12 @@
           <t>2-s2.0-84940001561</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>622</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14126,6 +14508,12 @@
         <is>
           <t>2-s2.0-84939975152</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>917</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -14333,6 +14721,12 @@
         <is>
           <t>2-s2.0-84939932842</t>
         </is>
+      </c>
+      <c r="BT65" t="n">
+        <v>703</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -14539,6 +14933,12 @@
           <t>2-s2.0-84928644171</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>1677</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14755,6 +15155,12 @@
         <is>
           <t>2-s2.0-84940007133</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>3738</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="68">
@@ -14955,6 +15361,12 @@
           <t>2-s2.0-84928595572</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>521</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15170,6 +15582,12 @@
           <t>2-s2.0-84939997601</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>915</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15386,6 +15804,12 @@
         <is>
           <t>2-s2.0-84939885858</t>
         </is>
+      </c>
+      <c r="BT70" t="n">
+        <v>1097</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -15594,6 +16018,12 @@
           <t>2-s2.0-84939940577</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15797,6 +16227,12 @@
           <t>2-s2.0-84939980508</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>537</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16007,6 +16443,12 @@
         <is>
           <t>2-s2.0-84910089211</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>2874</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -16215,6 +16657,12 @@
           <t>2-s2.0-84908376983</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>2389</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16422,6 +16870,12 @@
           <t>2-s2.0-84908374151</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>1062</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16640,6 +17094,12 @@
         <is>
           <t>2-s2.0-84909594953</t>
         </is>
+      </c>
+      <c r="BT76" t="n">
+        <v>1573</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -16832,6 +17292,12 @@
       <c r="BQ77" t="inlineStr"/>
       <c r="BR77" t="inlineStr"/>
       <c r="BS77" t="inlineStr"/>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17035,6 +17501,12 @@
           <t>2-s2.0-84914132405</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>360</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17228,6 +17700,12 @@
           <t>2-s2.0-84914147395</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>1243</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17439,6 +17917,12 @@
           <t>2-s2.0-84914165919</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>1830</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17655,6 +18139,12 @@
         <is>
           <t>2-s2.0-84914102766</t>
         </is>
+      </c>
+      <c r="BT81" t="n">
+        <v>714</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -17863,6 +18353,12 @@
           <t>2-s2.0-84914140194</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1019</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18073,6 +18569,12 @@
         <is>
           <t>2-s2.0-84914182831</t>
         </is>
+      </c>
+      <c r="BT83" t="n">
+        <v>833</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -18280,6 +18782,12 @@
         <is>
           <t>2-s2.0-85027936035</t>
         </is>
+      </c>
+      <c r="BT84" t="n">
+        <v>1506</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -18476,6 +18984,12 @@
           <t>2-s2.0-84914118686</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>425</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18690,6 +19204,12 @@
         <is>
           <t>2-s2.0-84914165026</t>
         </is>
+      </c>
+      <c r="BT86" t="n">
+        <v>813</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87">
@@ -18900,6 +19420,12 @@
           <t>2-s2.0-84914170011</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>1053</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19111,6 +19637,12 @@
           <t>2-s2.0-84914166405</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1517</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19320,6 +19852,12 @@
           <t>2-s2.0-84914146851</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1703</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19533,6 +20071,12 @@
           <t>2-s2.0-84914148082</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>4096</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19748,6 +20292,12 @@
           <t>2-s2.0-84908081491</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>1169</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19959,6 +20509,12 @@
           <t>2-s2.0-84908388257</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>2497</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20170,6 +20726,12 @@
           <t>2-s2.0-84914118721</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>2513</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
